--- a/Normalizacion Modelo Entidad Relacion/EJERCICIO NORMALIZACION.xlsx
+++ b/Normalizacion Modelo Entidad Relacion/EJERCICIO NORMALIZACION.xlsx
@@ -1,183 +1,300 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/cdrueda28_soy_sena_edu_co/Documents/PORTAFOLIO DE APRENDIZ- CRISTIAN DAVID RUEDA BAUTISTA-FICHA(2900619)-ADSO/SEGUNDO TRIMESTRE/INSTRUCTOR TECNICO- EDWIN MARIN/3. EVIDENCIAS DE APRENDIZAJE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\Normalizacion Modelo Entidad Relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E757C206-C193-7847-B83D-A5EAC7C4903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B81CC-C483-43CE-B219-0A32DEF873A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{279F5FF0-3204-4B4D-BE3D-F71D62F85F1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reserva Turno Normalizacion" sheetId="1" r:id="rId1"/>
+    <sheet name="Categoria_Producto" sheetId="2" r:id="rId2"/>
+    <sheet name="Producto" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
-  <si>
-    <t>INSTITUCION EDUCATIVA</t>
-  </si>
-  <si>
-    <t>Nombre_Alumno</t>
-  </si>
-  <si>
-    <t>Especialidad</t>
-  </si>
-  <si>
-    <t>Codigo_Curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Curso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Docente </t>
-  </si>
-  <si>
-    <t>382145A</t>
-  </si>
-  <si>
-    <t>360247K</t>
-  </si>
-  <si>
-    <t>Luis Zuloaga</t>
-  </si>
-  <si>
-    <t>Raul Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas </t>
-  </si>
-  <si>
-    <t>MA123</t>
-  </si>
-  <si>
-    <t>QU514</t>
-  </si>
-  <si>
-    <t>AU521</t>
-  </si>
-  <si>
-    <t>PA714</t>
-  </si>
-  <si>
-    <t>AU511</t>
-  </si>
-  <si>
-    <t>Matematica 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fisica Quimica </t>
-  </si>
-  <si>
-    <t>Descriptiva</t>
-  </si>
-  <si>
-    <t>Investigacion 1</t>
-  </si>
-  <si>
-    <t>Dibujo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos  Arambulo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petra Rondinel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Moncada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar Fernandez </t>
-  </si>
-  <si>
-    <t>Codigo_Alumno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alumnos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Alumno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Zuloaga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">382145A </t>
-  </si>
-  <si>
-    <t>Codigo_Especialidad</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>Curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codigo_Curso </t>
-  </si>
-  <si>
-    <t>Nombre_Curso</t>
-  </si>
-  <si>
-    <t>Especialidad_Alumnos</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codigo_Docente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Arambulo </t>
-  </si>
-  <si>
-    <t>Petra Rondinel</t>
-  </si>
-  <si>
-    <t>Cesar Fernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cusos_Doncente </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+  <si>
+    <t>ID_ReservaTurno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_TipoServicio </t>
+  </si>
+  <si>
+    <t>Aceptar_Turno</t>
+  </si>
+  <si>
+    <t>Cancelar_Turno</t>
+  </si>
+  <si>
+    <t>Reserva De Turno</t>
+  </si>
+  <si>
+    <t>ID_TipoServicio</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Corte Basico</t>
+  </si>
+  <si>
+    <t>Corte Medio</t>
+  </si>
+  <si>
+    <t>Corte Premium</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>TipoServicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Horario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Cliente </t>
+  </si>
+  <si>
+    <t>ID_Barbero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre </t>
+  </si>
+  <si>
+    <t>Decripcion</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Solo Corte De Cabello</t>
+  </si>
+  <si>
+    <t>Corte Mas Linea</t>
+  </si>
+  <si>
+    <t>Corte, Lineas, Cuidado Facial Y Masajes</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CLIIENTE</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Nombre_Usuario</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>Carlos Ramirez</t>
+  </si>
+  <si>
+    <t>Fidel Espitia</t>
+  </si>
+  <si>
+    <t>Cristian Rueda</t>
+  </si>
+  <si>
+    <t>carlosramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>fideljoseespi10@gmail.com</t>
+  </si>
+  <si>
+    <t>cristuanrueda15@gmail.com</t>
+  </si>
+  <si>
+    <t>984w749875</t>
+  </si>
+  <si>
+    <t>098t47ty784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1 </t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>BARBERO</t>
+  </si>
+  <si>
+    <t>Deiby</t>
+  </si>
+  <si>
+    <t>Jeison</t>
+  </si>
+  <si>
+    <t>Nixon</t>
+  </si>
+  <si>
+    <t>Deibybarber0@gmail.com</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>jeisonbarber1@gmail.com</t>
+  </si>
+  <si>
+    <t>Nixonbarber2@gmail.com</t>
+  </si>
+  <si>
+    <t>ID_Cliente</t>
+  </si>
+  <si>
+    <t>FECHA_HORA</t>
+  </si>
+  <si>
+    <t>23/05/2024 8:00-10:00</t>
+  </si>
+  <si>
+    <t>24/06/2024 8:00-10:00</t>
+  </si>
+  <si>
+    <t>25/07/2024 8:00-10:00</t>
+  </si>
+  <si>
+    <t>ID_Producto</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Gorras</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>Productos De Cuidado Personal</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Aretes</t>
+  </si>
+  <si>
+    <t>Ropa</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Categoria_Producto</t>
+  </si>
+  <si>
+    <t>ID_Categoria_Producto</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad </t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>Camisetas Oversize</t>
+  </si>
+  <si>
+    <t>Mascarillas</t>
+  </si>
+  <si>
+    <t>Talco Para Texturas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +302,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,14 +330,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -248,64 +367,71 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -322,9 +448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +488,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -618,419 +744,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD355B90-086A-42C5-B0F8-DFC62E077CCF}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.43359375" customWidth="1"/>
-    <col min="3" max="3" width="12.5078125" customWidth="1"/>
-    <col min="5" max="5" width="12.23828125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.6796875" customWidth="1"/>
-    <col min="10" max="10" width="15.87109375" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.73828125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="43.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="43" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" customWidth="1"/>
+    <col min="28" max="28" width="26.140625" customWidth="1"/>
+    <col min="29" max="29" width="16" customWidth="1"/>
+    <col min="30" max="30" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="2:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="2:14" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="9">
+        <v>18000</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1098556772</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3109980085</v>
+      </c>
+      <c r="X4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1098654024</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3145679803</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9">
+        <v>22000</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1028662003</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3142758305</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1087456820</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3198765902</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="9">
+        <v>50000</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="9">
+        <v>10098977625</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3044495505</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3078652463</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3044495505</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="U4" r:id="rId1" xr:uid="{6B5B4F14-46AF-47B1-B4F8-5BE8342968CE}"/>
+    <hyperlink ref="U5" r:id="rId2" xr:uid="{456414B6-326B-4422-84EF-4B15C306B71E}"/>
+    <hyperlink ref="U6" r:id="rId3" xr:uid="{6B2B062E-3456-4C8D-8B01-A868D44AE9CC}"/>
+    <hyperlink ref="AB4" r:id="rId4" xr:uid="{AB834CD7-C85B-454B-9306-35709E97617D}"/>
+    <hyperlink ref="AB5" r:id="rId5" xr:uid="{E4BD592D-A672-4D8F-B38C-8F64A72B1232}"/>
+    <hyperlink ref="AB6" r:id="rId6" xr:uid="{FBEBD8DD-B4FA-43A5-8F30-B573C1D9A618}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DFB61E-C1FD-4D84-BC65-BAFAFBF4D617}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE256596-3EE1-4C6D-9B37-573B18311353}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="M4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="10">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="10">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="10">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="10">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="10">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="10">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="M10" s="10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="M11" s="10">
-        <v>3</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="J14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="2:14" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I20" s="8"/>
-      <c r="J20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:11" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="J14:K14"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1255,17 +1609,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1279,17 +1638,21 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
     <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C449D2-91BB-495C-9D59-227A7078A5F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6B24D0-6D32-498E-A331-84654D6635F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>